--- a/src/site/sozai.xlsx
+++ b/src/site/sozai.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>ライフサイクルコールバック用アノテーション</t>
     <rPh sb="13" eb="14">
@@ -207,10 +207,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> proj.green.xlsmapper.XlsMapperConfig </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> XlsMapperの設定オブジェクト。 </t>
     <rPh sb="11" eb="13">
       <t>セッテイ</t>
@@ -218,10 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> proj.green.xlsmapper.validation.SheetBindingErrors</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> シートのエラー情報を格納するオブジェクト。読み込み時に引数で渡したオブジェクト。 </t>
     <rPh sb="8" eb="10">
       <t>ジョウホウ</t>
@@ -341,31 +333,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>proj.green.xlsmapper.POICellFormatter</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> fieldProcessorRegistry</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>proj.green.xlsmapper.fieldprocessor.FieldProcessorRegstry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> CellConverterRegistry</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>proj.green.xlsmapper.cellconvert.CellConverterRegistry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> beanFactory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>proj.green.xlsmapper.FactoryCallback</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -427,6 +403,72 @@
     <rPh sb="86" eb="88">
       <t>カンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージの提供</t>
+    <rPh sb="6" eb="8">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.gh.mygreen.xlsmapper.XlsMapperConfig </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.gh.mygreen.xlsmapper.validation.SheetBindingErrors</t>
+  </si>
+  <si>
+    <t>com.gh.mygreen.xlsmapper.POICellFormatter</t>
+  </si>
+  <si>
+    <t>com.gh.mygreen.xlsmapper.fieldprocessor.FieldProcessorRegstry</t>
+  </si>
+  <si>
+    <t>com.gh.mygreen.xlsmapper.cellconvert.CellConverterRegistry</t>
+  </si>
+  <si>
+    <t>com.gh.mygreen.xlsmapper.FactoryCallback</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XlsMapper提供のクラス</t>
+    <rPh sb="10" eb="12">
+      <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.gh.mygreen.xlsmapper.validation.ResourceBundleMessageResolver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.gh.mygreen.xlsmapper.validation.PropertiesMessageResolver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.gh.mygreen.xlsmapper.validation.SpringMessageResolver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メッセージ取得元のクラス</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> java.util.ResourceBundle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> java.util.Prperties</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> org.springframework.context.MessageSource</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -798,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D25"/>
+  <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -832,7 +874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -840,7 +882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,7 +890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,7 +905,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>5</v>
@@ -879,31 +921,31 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -911,79 +953,116 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/site/sozai.xlsx
+++ b/src/site/sozai.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>ライフサイクルコールバック用アノテーション</t>
     <rPh sb="13" eb="14">
@@ -271,10 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シートが見つからなくても無視するかどうか。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> ignoreSheetNotFound</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -283,49 +279,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>型変換エラーが発生しても処理を続けるかどうか。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve"> mergeCellOnSave</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>boolean</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>書き込み時にセルの結合を行うかどうか。アノテーション@XlsColumnの属性mergedを書き込み時も考慮します。</t>
-    <rPh sb="0" eb="1">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>コウリョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -469,6 +427,79 @@
   </si>
   <si>
     <t xml:space="preserve"> org.springframework.context.MessageSource</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シートが見つからなくても無視するかどうか。初期値は'false'です。</t>
+    <rPh sb="21" eb="24">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型変換エラーが発生しても処理を続けるかどうか。初期値は'false'です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込み時にセルの結合を行うかどうか。アノテーション@XlsColumnの属性mergedを書き込み時も考慮します。初期値は'false'です。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> correctNameRangeOnSave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> correctCellDataValidationOnSave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込み時に名前の定義範囲を修正するかどうか。初期値は'false'です。Ver.0.3以上から利用可能です。</t>
+    <rPh sb="9" eb="11">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き込み時に名前のセルの入力規則を修正するかどうか。初期値は'false'です。Ver.0.3以上から利用可能です。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -840,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D32"/>
+  <dimension ref="B1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -921,7 +952,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>15</v>
@@ -929,7 +960,7 @@
     </row>
     <row r="14" spans="2:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
@@ -953,116 +984,138 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="C32" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
